--- a/biology/Botanique/Cotoneaster_lacteus/Cotoneaster_lacteus.xlsx
+++ b/biology/Botanique/Cotoneaster_lacteus/Cotoneaster_lacteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotonéaster laiteux
 Cotoneaster lacteus (l'appelation scientifique correcte étant Cotoneaster coriaceus), le Cotonéaster laiteux, est une espèce de plantes à fleurs de la famille des Rosacées. C'est une plante ornementale originaire de Chine.
@@ -514,12 +526,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste rustique à feuillage persistant[1],[2],[3] aux rameaux arqués et retombants[4],[5] pouvant atteindre 3 à 4 m de haut pour autant de large[2],[5].
-L'arbuste est mellifère. En juin-juillet, il présente une multitude de fleurs blanches[3],[4] regroupées en grappes qui attirent les insectes en nombre.
-À l'automne, des grappes de baies rouge vif remplacent les fleurs et perdurent jusqu'en plein hiver[1],[3], faisant le bonheur d'oiseaux tels que les merles ou les grives.
-Ses feuilles, vert foncé dessus et blanchâtres dessous, sont ovales[1],[4] avec un sillon médian bien marqué[2] et une extrémité légèrement pointue.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste rustique à feuillage persistant aux rameaux arqués et retombants, pouvant atteindre 3 à 4 m de haut pour autant de large,.
+L'arbuste est mellifère. En juin-juillet, il présente une multitude de fleurs blanches, regroupées en grappes qui attirent les insectes en nombre.
+À l'automne, des grappes de baies rouge vif remplacent les fleurs et perdurent jusqu'en plein hiver faisant le bonheur d'oiseaux tels que les merles ou les grives.
+Ses feuilles, vert foncé dessus et blanchâtres dessous, sont ovales, avec un sillon médian bien marqué et une extrémité légèrement pointue.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cotoneaster coriaceus se satisfait de toutes sortes de terrains[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cotoneaster coriaceus se satisfait de toutes sortes de terrains.
 </t>
         </is>
       </c>
